--- a/players_stats/Daequan Cook.xlsx
+++ b/players_stats/Daequan Cook.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1980-81</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NJN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -574,86 +574,88 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>81</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>59</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19</v>
+      </c>
       <c r="J2" t="n">
-        <v>1980</v>
+        <v>1441</v>
       </c>
       <c r="K2" t="n">
-        <v>383</v>
+        <v>196</v>
       </c>
       <c r="L2" t="n">
-        <v>819</v>
+        <v>514</v>
       </c>
       <c r="M2" t="n">
-        <v>0.468</v>
+        <v>0.381</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="O2" t="n">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="P2" t="n">
-        <v>0.24</v>
+        <v>0.332</v>
       </c>
       <c r="Q2" t="n">
-        <v>377</v>
+        <v>117</v>
       </c>
       <c r="R2" t="n">
-        <v>794</v>
+        <v>276</v>
       </c>
       <c r="S2" t="n">
-        <v>0.475</v>
+        <v>0.424</v>
       </c>
       <c r="T2" t="n">
-        <v>0.471</v>
+        <v>0.458</v>
       </c>
       <c r="U2" t="n">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="V2" t="n">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="W2" t="n">
-        <v>0.733</v>
+        <v>0.825</v>
       </c>
       <c r="X2" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="Z2" t="n">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="AA2" t="n">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="n">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="AE2" t="n">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="AF2" t="n">
-        <v>904</v>
+        <v>518</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 190</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -662,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -674,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NJN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -692,92 +694,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2090</v>
+        <v>1833</v>
       </c>
       <c r="K3" t="n">
-        <v>387</v>
+        <v>242</v>
       </c>
       <c r="L3" t="n">
-        <v>803</v>
+        <v>645</v>
       </c>
       <c r="M3" t="n">
-        <v>0.482</v>
+        <v>0.375</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="O3" t="n">
-        <v>31</v>
+        <v>395</v>
       </c>
       <c r="P3" t="n">
-        <v>0.226</v>
+        <v>0.387</v>
       </c>
       <c r="Q3" t="n">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="R3" t="n">
-        <v>772</v>
+        <v>250</v>
       </c>
       <c r="S3" t="n">
-        <v>0.492</v>
+        <v>0.356</v>
       </c>
       <c r="T3" t="n">
-        <v>0.486</v>
+        <v>0.494</v>
       </c>
       <c r="U3" t="n">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="V3" t="n">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="W3" t="n">
-        <v>0.728</v>
+        <v>0.875</v>
       </c>
       <c r="X3" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="Z3" t="n">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="AA3" t="n">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="n">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="n">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="AF3" t="n">
-        <v>899</v>
+        <v>686</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 190</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -786,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -798,110 +800,110 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1982-83</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>45</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>691</v>
+      </c>
+      <c r="K4" t="n">
+        <v>81</v>
+      </c>
+      <c r="L4" t="n">
+        <v>253</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O4" t="n">
+        <v>126</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>41</v>
+      </c>
+      <c r="R4" t="n">
+        <v>127</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="U4" t="n">
+        <v>21</v>
+      </c>
+      <c r="V4" t="n">
+        <v>25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
         <v>24</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NJN</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>82</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2625</v>
-      </c>
-      <c r="K4" t="n">
-        <v>443</v>
-      </c>
-      <c r="L4" t="n">
-        <v>986</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>38</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>435</v>
-      </c>
-      <c r="R4" t="n">
-        <v>948</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="U4" t="n">
-        <v>186</v>
-      </c>
-      <c r="V4" t="n">
-        <v>242</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="X4" t="n">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>167</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>240</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>448</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>194</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>238</v>
-      </c>
       <c r="AE4" t="n">
-        <v>213</v>
+        <v>50</v>
       </c>
       <c r="AF4" t="n">
-        <v>1080</v>
+        <v>223</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 190</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -910,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -922,15 +924,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NJN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -940,92 +942,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I5" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1870</v>
+        <v>598</v>
       </c>
       <c r="K5" t="n">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="L5" t="n">
-        <v>687</v>
+        <v>181</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4429999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="O5" t="n">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="P5" t="n">
-        <v>0.239</v>
+        <v>0.422</v>
       </c>
       <c r="Q5" t="n">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="R5" t="n">
-        <v>641</v>
+        <v>27</v>
       </c>
       <c r="S5" t="n">
-        <v>0.457</v>
+        <v>0.519</v>
       </c>
       <c r="T5" t="n">
-        <v>0.451</v>
+        <v>0.616</v>
       </c>
       <c r="U5" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="V5" t="n">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="W5" t="n">
-        <v>0.754</v>
+        <v>0.8</v>
       </c>
       <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE5" t="n">
         <v>51</v>
       </c>
-      <c r="Y5" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>156</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>356</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>164</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>142</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>184</v>
-      </c>
       <c r="AF5" t="n">
-        <v>714</v>
+        <v>239</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 190</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1034,7 +1036,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1046,15 +1048,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1984-85</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NJN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1064,101 +1066,101 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>1063</v>
+        <v>989</v>
       </c>
       <c r="K6" t="n">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="L6" t="n">
-        <v>453</v>
+        <v>296</v>
       </c>
       <c r="M6" t="n">
-        <v>0.468</v>
+        <v>0.368</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="O6" t="n">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.346</v>
       </c>
       <c r="Q6" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="R6" t="n">
-        <v>430</v>
+        <v>68</v>
       </c>
       <c r="S6" t="n">
-        <v>0.488</v>
+        <v>0.441</v>
       </c>
       <c r="T6" t="n">
-        <v>0.47</v>
+        <v>0.502</v>
       </c>
       <c r="U6" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="V6" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="W6" t="n">
-        <v>0.87</v>
+        <v>0.636</v>
       </c>
       <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>122</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>69</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>311</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 196</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 92 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
         <v>21</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>92</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>96</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>473</v>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 190</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 83 </t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ6" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1170,15 +1172,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1985-86</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NJN</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1188,92 +1190,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I7" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1965</v>
+        <v>441</v>
       </c>
       <c r="K7" t="n">
-        <v>267</v>
+        <v>51</v>
       </c>
       <c r="L7" t="n">
-        <v>627</v>
+        <v>167</v>
       </c>
       <c r="M7" t="n">
-        <v>0.426</v>
+        <v>0.305</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P7" t="n">
-        <v>0.208</v>
+        <v>0.286</v>
       </c>
       <c r="Q7" t="n">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="R7" t="n">
-        <v>574</v>
+        <v>76</v>
       </c>
       <c r="S7" t="n">
-        <v>0.446</v>
+        <v>0.329</v>
       </c>
       <c r="T7" t="n">
-        <v>0.435</v>
+        <v>0.383</v>
       </c>
       <c r="U7" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="V7" t="n">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="W7" t="n">
-        <v>0.757</v>
+        <v>0.75</v>
       </c>
       <c r="X7" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="Z7" t="n">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="AA7" t="n">
-        <v>390</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>629</v>
+        <v>137</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 190</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1282,7 +1284,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1294,15 +1296,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WSB</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1316,88 +1318,88 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>165</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L8" t="n">
+        <v>59</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>30</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" t="n">
+        <v>29</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="U8" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
-        <v>1420</v>
-      </c>
-      <c r="K8" t="n">
-        <v>265</v>
-      </c>
-      <c r="L8" t="n">
-        <v>622</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
         <v>2</v>
       </c>
-      <c r="O8" t="n">
-        <v>23</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>263</v>
-      </c>
-      <c r="R8" t="n">
-        <v>599</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.428</v>
-      </c>
-      <c r="U8" t="n">
-        <v>82</v>
-      </c>
-      <c r="V8" t="n">
-        <v>103</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.7959999999999999</v>
-      </c>
-      <c r="X8" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>145</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>98</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
       <c r="AD8" t="n">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>614</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 190</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1406,7 +1408,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1418,110 +1420,110 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>33</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>276</v>
+      </c>
+      <c r="K9" t="n">
         <v>30</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>TOT</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>66</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1143</v>
-      </c>
-      <c r="K9" t="n">
-        <v>218</v>
-      </c>
       <c r="L9" t="n">
-        <v>478</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
-        <v>0.456</v>
+        <v>0.278</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
+        <v>61</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>47</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
         <v>41</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>210</v>
-      </c>
-      <c r="R9" t="n">
-        <v>437</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="U9" t="n">
-        <v>63</v>
-      </c>
-      <c r="V9" t="n">
-        <v>78</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.8079999999999999</v>
-      </c>
-      <c r="X9" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>73</v>
-      </c>
       <c r="Z9" t="n">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="AA9" t="n">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD9" t="n">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>507</v>
+        <v>82</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 190</t>
+          <t xml:space="preserve"> 196</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1530,7 +1532,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1542,17 +1544,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1988-89</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>30</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NBA</t>
@@ -1564,339 +1560,97 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>36</v>
+        <v>328</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J10" t="n">
-        <v>757</v>
+        <v>5993</v>
       </c>
       <c r="K10" t="n">
-        <v>147</v>
+        <v>758</v>
       </c>
       <c r="L10" t="n">
-        <v>315</v>
+        <v>2056</v>
       </c>
       <c r="M10" t="n">
-        <v>0.467</v>
+        <v>0.369</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>442</v>
       </c>
       <c r="O10" t="n">
-        <v>31</v>
+        <v>1232</v>
       </c>
       <c r="P10" t="n">
-        <v>0.194</v>
+        <v>0.359</v>
       </c>
       <c r="Q10" t="n">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="R10" t="n">
-        <v>284</v>
+        <v>824</v>
       </c>
       <c r="S10" t="n">
-        <v>0.496</v>
+        <v>0.383</v>
       </c>
       <c r="T10" t="n">
         <v>0.476</v>
       </c>
       <c r="U10" t="n">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="V10" t="n">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="W10" t="n">
-        <v>0.821</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="X10" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>628</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>703</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>243</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>177</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>478</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>2114</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 196</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 92 </t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ10" t="n">
         <v>21</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>59</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>84</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>62</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>77</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>346</v>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 190</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 83 </t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ10" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1988-89</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>30</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>30</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>386</v>
-      </c>
-      <c r="K11" t="n">
-        <v>71</v>
-      </c>
-      <c r="L11" t="n">
-        <v>163</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>10</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>69</v>
-      </c>
-      <c r="R11" t="n">
-        <v>153</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="U11" t="n">
-        <v>17</v>
-      </c>
-      <c r="V11" t="n">
-        <v>22</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="X11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>43</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>161</v>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 190</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 83 </t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ11" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>612</v>
-      </c>
-      <c r="I12" t="n">
-        <v>143</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14156</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2479</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5475</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="N12" t="n">
-        <v>55</v>
-      </c>
-      <c r="O12" t="n">
-        <v>280</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2424</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5195</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="U12" t="n">
-        <v>807</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1056</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="X12" t="n">
-        <v>424</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>884</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1308</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2248</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1044</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>203</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1122</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1315</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>5820</v>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 190</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 83 </t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ12" t="n">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
